--- a/(주)형경산업_MES_WBS_Sheet.xlsx
+++ b/(주)형경산업_MES_WBS_Sheet.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 구성도" sheetId="5" r:id="rId1"/>
     <sheet name="WBS_Ver1.0" sheetId="1" r:id="rId2"/>
-    <sheet name="기타 이슈" sheetId="6" r:id="rId3"/>
+    <sheet name="이슈1_0129" sheetId="6" r:id="rId3"/>
+    <sheet name="이슈2_0205" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>WBS</t>
   </si>
@@ -58,14 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCM-Gabbiani</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC++ Builder 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Phase 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCM-Gabbiani 회로도 입수 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">장비 및 관련 자료 &amp; 업무 흐름 파악 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초기 버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통신 기능 검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정부 과제 &amp; 특허 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통신 OK, 데이터 오류 문제 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,15 +364,350 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. SCM-Gabbiani 장비 PC에 S/W 설치 중 바이러스 발견 (Ramnit 바이러스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.  바이러스 Scanning 및 치료 장면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 바이러스 전체 치료 완료 (약 5538개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국실내건축환경시험연구원 과제 검토 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 방법 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부 과제 (특허) 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SCM-Gabbiani A3장비 PC에 S/W 설치 중 바이러스 발견 (Ramnit 바이러스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ga1Agent.exe 를 실행하면 Ga1AgentSrv.exe가 생성이 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.  바이러스 Scanning 및 치료 장면 ( Safe Mode로 진입 후 바이러스 Scan 및 치료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 오래된 Legacy 장비여서 장비 실시간 데이터 연동을 위해서는 추가 H/W 보드 장착이 필요함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. APEX 싱글: AP-2100 5대, APEX 더블: AP-DH2111H 3대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인력에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>견적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요청해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM-Gabbiani A3 회로도 입수 예정(1달 후)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 장비 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM-Gabbiani A3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌웨어 초기 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC++ Builder 6 시스템 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vmware 서버 시뮬레이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -508,6 +825,44 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -696,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,9 +1105,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,6 +1178,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -848,15 +1216,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>109704</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>141316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390277</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>15266</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456779</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,8 +1241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598516" y="157942"/>
-          <a:ext cx="11163572" cy="6964706"/>
+          <a:off x="708220" y="457200"/>
+          <a:ext cx="9324821" cy="5817550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,15 +1259,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>33252</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68012</xdr:rowOff>
+      <xdr:colOff>316862</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>425453</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112503</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -922,8 +1290,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="637814" y="385407"/>
-          <a:ext cx="5833259" cy="4466203"/>
+          <a:off x="913422" y="674352"/>
+          <a:ext cx="5761246" cy="4626235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -935,15 +1303,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>29472</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>133</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>457015</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>8313</xdr:rowOff>
+      <xdr:colOff>427676</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>27872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -966,8 +1334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634034" y="6303315"/>
-          <a:ext cx="5868601" cy="4148806"/>
+          <a:off x="596693" y="6643825"/>
+          <a:ext cx="5796588" cy="4298169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,15 +1347,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>154163</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133004</xdr:rowOff>
+      <xdr:colOff>124824</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>343674</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>124693</xdr:rowOff>
+      <xdr:colOff>314335</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1010,8 +1378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6804345" y="6344879"/>
-          <a:ext cx="6235131" cy="4072480"/>
+          <a:off x="6686989" y="6626711"/>
+          <a:ext cx="6155115" cy="4216510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,14 +1392,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>132247</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>68012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>119160</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>45342</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>45343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1068,13 +1436,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>603806</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>84639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>380917</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>136026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1106,6 +1474,120 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440085</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>420526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7002250" y="3158836"/>
+          <a:ext cx="577001" cy="508544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224932</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410746</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="모서리가 둥근 직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1418053" y="13173228"/>
+          <a:ext cx="3168617" cy="2415581"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1315,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -1334,8 +1816,8 @@
   </sheetPr>
   <dimension ref="A2:I1013"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1353,12 +1835,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="55"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="54"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="23.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
@@ -1383,97 +1865,99 @@
         <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="37">
+      <c r="C5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="36">
         <v>12</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="39"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="44">
+        <v>16</v>
+      </c>
+      <c r="E6" s="43">
         <v>46373</v>
       </c>
       <c r="F6" s="13">
         <v>8</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
-      <c r="C7" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="44">
+        <v>46386</v>
+      </c>
+      <c r="F7" s="48">
+        <v>4</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="45">
-        <v>46386</v>
-      </c>
-      <c r="F7" s="49">
-        <v>4</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="71" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52">
+      <c r="B8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51">
         <v>30</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
@@ -1481,25 +1965,25 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="44">
+        <v>23</v>
+      </c>
+      <c r="E9" s="43">
         <v>46028</v>
       </c>
       <c r="F9" s="13">
         <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1508,12 +1992,12 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>46031</v>
       </c>
       <c r="F10" s="13">
@@ -1523,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1535,25 +2019,25 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="44">
+        <v>27</v>
+      </c>
+      <c r="E11" s="43">
         <v>46035</v>
       </c>
       <c r="F11" s="13">
         <v>5</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1562,25 +2046,25 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="44">
+        <v>52</v>
+      </c>
+      <c r="E12" s="43">
         <v>46042</v>
       </c>
       <c r="F12" s="13">
         <v>5</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1589,25 +2073,25 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="44">
+        <v>28</v>
+      </c>
+      <c r="E13" s="43">
         <v>46048</v>
       </c>
       <c r="F13" s="13">
         <v>5</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1616,25 +2100,25 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="44">
+        <v>32</v>
+      </c>
+      <c r="E14" s="43">
         <v>46049</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1643,91 +2127,97 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="44">
+        <v>79</v>
+      </c>
+      <c r="E15" s="43">
         <v>46050</v>
       </c>
       <c r="F15" s="13">
         <v>3</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="48">
+        <v>1.8</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="44">
+        <v>46052</v>
+      </c>
+      <c r="F16" s="48">
+        <v>2</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="41" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51">
+        <v>2</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51">
+        <v>30</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="43">
+        <v>46055</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="48">
-        <v>46052</v>
-      </c>
-      <c r="F16" s="33">
-        <v>2</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30">
-        <v>2</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="30">
-        <v>30</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="47">
-        <v>46055</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
@@ -1735,19 +2225,19 @@
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="47">
+        <v>47</v>
+      </c>
+      <c r="E19" s="46">
         <v>46062</v>
       </c>
       <c r="F19" s="14">
         <v>5</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="7"/>
@@ -1758,12 +2248,12 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="47">
+        <v>65</v>
+      </c>
+      <c r="E20" s="46">
         <v>46063</v>
       </c>
       <c r="F20" s="14">
@@ -1781,19 +2271,19 @@
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="47">
+        <v>51</v>
+      </c>
+      <c r="E21" s="46">
         <v>46066</v>
       </c>
       <c r="F21" s="14">
         <v>3</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="7"/>
@@ -1802,19 +2292,19 @@
       <c r="A22" s="14"/>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="47">
+        <v>60</v>
+      </c>
+      <c r="E22" s="46">
         <v>46077</v>
       </c>
       <c r="F22" s="14">
         <v>4</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="7"/>
@@ -1823,22 +2313,24 @@
       <c r="A23" s="14"/>
       <c r="B23" s="20"/>
       <c r="C23" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="47">
+        <v>83</v>
+      </c>
+      <c r="E23" s="46">
         <v>46084</v>
       </c>
       <c r="F23" s="14">
         <v>5</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
@@ -1846,19 +2338,19 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="47">
+        <v>28</v>
+      </c>
+      <c r="E24" s="46">
         <v>46086</v>
       </c>
       <c r="F24" s="14">
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="7"/>
@@ -1869,19 +2361,19 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="47">
+        <v>62</v>
+      </c>
+      <c r="E25" s="46">
         <v>46087</v>
       </c>
       <c r="F25" s="14">
         <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="7"/>
@@ -1892,19 +2384,19 @@
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="47">
+        <v>58</v>
+      </c>
+      <c r="E26" s="46">
         <v>46093</v>
       </c>
       <c r="F26" s="14">
         <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="7"/>
@@ -1915,62 +2407,62 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="47">
+        <v>68</v>
+      </c>
+      <c r="E27" s="46">
         <v>46098</v>
       </c>
       <c r="F27" s="14">
         <v>3</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="35">
+      <c r="A28" s="34">
         <v>2.8</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="B28" s="33"/>
+      <c r="C28" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="47">
         <v>46101</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>3</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="35"/>
+      <c r="G28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <v>3</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="32"/>
+      <c r="B29" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
@@ -2061,28 +2553,28 @@
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="36"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
-      <c r="B39" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="58"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="57"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
@@ -2184,28 +2676,28 @@
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="16.399999999999999" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="36"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" spans="1:9" ht="16.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="46"/>
-      <c r="B50" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="58"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="57"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
@@ -5193,87 +5685,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O74"/>
+  <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:10" s="60" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="37" spans="1:15" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-    </row>
-    <row r="38" spans="1:15" s="60" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61" t="s">
+    <row r="2" spans="1:10" s="59" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-    </row>
-    <row r="73" spans="1:9" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-    </row>
-    <row r="74" spans="1:9" s="60" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="21" spans="14:14" ht="22.95" x14ac:dyDescent="0.5">
+      <c r="N21" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
+    </row>
+    <row r="35" spans="1:15" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="1:15" s="59" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+    </row>
+    <row r="67" spans="1:9" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+    </row>
+    <row r="68" spans="1:9" s="59" customFormat="1" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="60"/>
+      <c r="B68" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5281,4 +5778,44 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" ht="22.95" x14ac:dyDescent="0.45">
+      <c r="A2" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/(주)형경산업_MES_WBS_Sheet.xlsx
+++ b/(주)형경산업_MES_WBS_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EasyFwGuy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_code\HK_SmartFactory_Wbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25135" windowHeight="10250"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 구성도" sheetId="5" r:id="rId1"/>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -1811,13 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A2:I1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5679,7 +5676,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
